--- a/data/BFI_CS1902v3.xlsx
+++ b/data/BFI_CS1902v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/Case_Studies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F23661-DBC9-2F4F-A0E1-3803213439CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CFF96-2881-D24B-B001-091B6D2F905F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -231,6 +231,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -482,11 +483,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -896,7 +897,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>43708.447783217591</v>
+        <v>43712.524808148148</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -908,169 +909,169 @@
         <v>59</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <v>3</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>3</v>
       </c>
       <c r="O9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>43712.524808148148</v>
+        <v>43705.585563356479</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>20153418</v>
+        <v>20153423</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>43705.585563356479</v>
+        <v>43705.547179976857</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>20153423</v>
+        <v>20153427</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>43705.547179976857</v>
+        <v>43705.58000494213</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>20153427</v>
+        <v>20153433</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
@@ -1082,13 +1083,13 @@
         <v>2</v>
       </c>
       <c r="M12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="3">
         <v>2</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="3">
         <v>4</v>
@@ -1096,25 +1097,25 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>43705.58000494213</v>
+        <v>43705.687255474535</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>20153433</v>
+        <v>20157096</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -1123,22 +1124,22 @@
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3">
         <v>4</v>
@@ -1146,31 +1147,31 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="2">
-        <v>43705.687255474535</v>
+        <v>43706.880641481483</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>20157096</v>
+        <v>20163210</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1182,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
         <v>3</v>
@@ -1191,30 +1192,30 @@
         <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="2">
-        <v>43706.880641481483</v>
+        <v>43705.547313726856</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
-        <v>20163210</v>
+        <v>20163215</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -1232,60 +1233,60 @@
         <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3">
         <v>3</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
-        <v>43705.547313726856</v>
+        <v>43708.634626539351</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>20163215</v>
+        <v>20163222</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
       </c>
       <c r="K16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="3">
         <v>3</v>
@@ -1296,49 +1297,49 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="2">
-        <v>43708.634626539351</v>
+        <v>43708.404100856482</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
-        <v>20163222</v>
+        <v>20163226</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
@@ -1346,49 +1347,49 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>43708.404100856482</v>
+        <v>43705.549003900465</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
-        <v>20163226</v>
+        <v>20163257</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="3">
         <v>2</v>
       </c>
       <c r="L18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" s="3">
         <v>2</v>
       </c>
       <c r="N18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="3">
         <v>4</v>
@@ -1396,16 +1397,16 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>43705.549003900465</v>
+        <v>43705.594817858801</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
-        <v>20163257</v>
+        <v>20165317</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -1414,22 +1415,22 @@
         <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <v>3</v>
       </c>
       <c r="K19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
         <v>2</v>
@@ -1438,24 +1439,24 @@
         <v>3</v>
       </c>
       <c r="O19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>43705.594817858801</v>
+        <v>43706.383725219908</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="3">
-        <v>20165317</v>
+        <v>20165325</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1467,13 +1468,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -1482,98 +1483,98 @@
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O20" s="3">
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>43706.383725219908</v>
+        <v>43705.54661863426</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>20165325</v>
+        <v>20172628</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="3">
         <v>4</v>
       </c>
       <c r="N21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>43705.54661863426</v>
+        <v>43705.56409886574</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>20172628</v>
+        <v>20173221</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
         <v>2</v>
@@ -1582,39 +1583,39 @@
         <v>2</v>
       </c>
       <c r="M22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>43705.56409886574</v>
+        <v>43709.842993344908</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3">
-        <v>20173221</v>
+        <v>20173222</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
         <v>3</v>
@@ -1623,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
         <v>2</v>
@@ -1635,148 +1636,148 @@
         <v>3</v>
       </c>
       <c r="N23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>43705.562660960648</v>
+        <v>43705.547266157402</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>20173222</v>
+        <v>20173228</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
         <v>2</v>
       </c>
       <c r="M24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="3">
         <v>3</v>
       </c>
       <c r="O24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>43709.842993344908</v>
+        <v>43706.746118877316</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="3">
-        <v>20173222</v>
+        <v>20173232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>2</v>
       </c>
       <c r="M25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>43705.547266157402</v>
+        <v>43705.577257037032</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="3">
-        <v>20173228</v>
+        <v>20173240</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
         <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
         <v>2</v>
@@ -1785,45 +1786,45 @@
         <v>2</v>
       </c>
       <c r="N26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>43706.746118877316</v>
+        <v>43706.586023043987</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3">
-        <v>20173232</v>
+        <v>20173244</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
         <v>2</v>
@@ -1846,34 +1847,34 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>43705.577257037032</v>
+        <v>43705.623267488423</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
-        <v>20173240</v>
+        <v>20173246</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1882,54 +1883,54 @@
         <v>2</v>
       </c>
       <c r="M28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>43706.586023043987</v>
+        <v>43708.623458437505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3">
-        <v>20173244</v>
+        <v>20173251</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3">
         <v>4</v>
@@ -1938,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="O29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="3">
         <v>4</v>
@@ -1946,49 +1947,49 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>43705.623267488423</v>
+        <v>43705.649158414351</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
-        <v>20173246</v>
+        <v>20173261</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30" s="3">
         <v>4</v>
@@ -1996,49 +1997,49 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>43705.546603460651</v>
+        <v>43709.535268263891</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3">
-        <v>20173251</v>
+        <v>20177094</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" s="3">
         <v>4</v>
       </c>
       <c r="O31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" s="3">
         <v>4</v>
@@ -2046,19 +2047,19 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>43708.623458437505</v>
+        <v>43705.548219837961</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
-        <v>20173251</v>
+        <v>20183205</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -2067,28 +2068,28 @@
         <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="M32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" s="3">
         <v>4</v>
@@ -2096,84 +2097,84 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>43705.649158414351</v>
+        <v>43705.627075625001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C33" s="3">
-        <v>20173261</v>
+        <v>20183214</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
       </c>
       <c r="L33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>43709.535268263891</v>
+        <v>43705.54696226852</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3">
-        <v>20177094</v>
+        <v>20183238</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34" s="3">
         <v>2</v>
@@ -2182,113 +2183,113 @@
         <v>4</v>
       </c>
       <c r="M34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" s="3">
         <v>4</v>
       </c>
       <c r="O34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>43705.548219837961</v>
+        <v>43705.551657233795</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3">
-        <v>20183205</v>
+        <v>20183240</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O35" s="3">
         <v>2</v>
       </c>
       <c r="P35" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>43705.627075625001</v>
+        <v>43705.560113009255</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>20183214</v>
+        <v>20183246</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="3">
         <v>5</v>
@@ -2296,49 +2297,49 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>43705.54696226852</v>
+        <v>43705.651897777774</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3">
-        <v>20183238</v>
+        <v>20183249</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3">
         <v>2</v>
       </c>
       <c r="L37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="3">
         <v>3</v>
@@ -2346,93 +2347,93 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>43705.551657233795</v>
+        <v>43708.544608310185</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="3">
-        <v>20183240</v>
+        <v>20183253</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" s="3">
         <v>4</v>
       </c>
       <c r="J38" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" s="3">
         <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>43705.560113009255</v>
+        <v>43707.852837511571</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="3">
-        <v>20183246</v>
+        <v>20183262</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
         <v>3</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" s="3">
         <v>4</v>
@@ -2444,209 +2445,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
-        <v>43705.651897777774</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3">
-        <v>20183249</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>3</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3">
-        <v>2</v>
-      </c>
-      <c r="L40" s="3">
-        <v>3</v>
-      </c>
-      <c r="M40" s="3">
-        <v>4</v>
-      </c>
-      <c r="N40" s="3">
-        <v>3</v>
-      </c>
-      <c r="O40" s="3">
-        <v>3</v>
-      </c>
-      <c r="P40" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
-        <v>43712.594247928238</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="3">
-        <v>20183249</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A42" s="2">
-        <v>43708.544608310185</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="3">
-        <v>20183253</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
-        <v>43707.852837511571</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="3">
-        <v>20183262</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2</v>
-      </c>
-      <c r="P43" s="3">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P43">
-    <sortCondition ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P39">
+    <sortCondition ref="C1:C39"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/BFI_CS1902v3.xlsx
+++ b/data/BFI_CS1902v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/Case_Studies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CFF96-2881-D24B-B001-091B6D2F905F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C582C2-AA85-484E-A96C-A0CC2449566C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -547,19 +547,19 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>43708.566989907413</v>
+        <v>43706.008459861114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3">
-        <v>20133316</v>
+        <v>20145106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
@@ -574,45 +574,45 @@
         <v>3</v>
       </c>
       <c r="J2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
         <v>3</v>
       </c>
       <c r="L2" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="3">
         <v>4</v>
       </c>
       <c r="O2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>43705.549833807869</v>
+        <v>43705.548219837961</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
-        <v>20143432</v>
+        <v>20183205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -621,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
         <v>2</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
@@ -647,19 +647,19 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>43706.008459861114</v>
+        <v>43705.687255474535</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>20145106</v>
+        <v>20157096</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>4</v>
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
@@ -686,10 +686,10 @@
         <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3">
         <v>4</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>43706.635260289353</v>
+        <v>43705.549842615743</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>20153319</v>
+        <v>20153408</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="3">
         <v>3</v>
@@ -789,107 +789,107 @@
         <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2">
-        <v>43705.549842615743</v>
+        <v>43705.56409886574</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>20153408</v>
+        <v>20173221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="3">
         <v>3</v>
       </c>
       <c r="N7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>43705.552099618057</v>
+        <v>43709.842993344908</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>20153414</v>
+        <v>20173222</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
         <v>5</v>
@@ -897,84 +897,84 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>43712.524808148148</v>
+        <v>43705.627075625001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
-        <v>20153418</v>
+        <v>20183214</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>43705.585563356479</v>
+        <v>43706.880641481483</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>20153423</v>
+        <v>20163210</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -983,63 +983,63 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>43705.547179976857</v>
+        <v>43705.547266157402</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>20153427</v>
+        <v>20173228</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3">
         <v>4</v>
@@ -1047,19 +1047,19 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>43705.58000494213</v>
+        <v>43705.547313726856</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>20153433</v>
+        <v>20163215</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -1068,28 +1068,28 @@
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>2</v>
       </c>
       <c r="N12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3">
         <v>4</v>
@@ -1097,143 +1097,143 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>43705.687255474535</v>
+        <v>43705.552099618057</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
-        <v>20157096</v>
+        <v>20153414</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="2">
-        <v>43706.880641481483</v>
+        <v>43705.649158414351</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>20163210</v>
+        <v>20173261</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="2">
-        <v>43705.547313726856</v>
+        <v>43712.524808148148</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
-        <v>20163215</v>
+        <v>20153418</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>3</v>
@@ -1297,49 +1297,49 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="2">
-        <v>43708.404100856482</v>
+        <v>43706.746118877316</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>20163226</v>
+        <v>20173232</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
@@ -1347,16 +1347,16 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>43705.549003900465</v>
+        <v>43705.594817858801</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
-        <v>20163257</v>
+        <v>20165317</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1365,22 +1365,22 @@
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
       </c>
       <c r="K18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
         <v>2</v>
@@ -1389,77 +1389,77 @@
         <v>3</v>
       </c>
       <c r="O18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>43705.594817858801</v>
+        <v>43706.635260289353</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>20165317</v>
+        <v>20153319</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3">
         <v>3</v>
       </c>
       <c r="O19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>43706.383725219908</v>
+        <v>43708.566989907413</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
-        <v>20165325</v>
+        <v>20133316</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
@@ -1468,128 +1468,128 @@
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>43705.54661863426</v>
+        <v>43708.404100856482</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
-        <v>20172628</v>
+        <v>20163226</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
         <v>2</v>
       </c>
       <c r="L21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>43705.56409886574</v>
+        <v>43709.535268263891</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>20173221</v>
+        <v>20177094</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>2</v>
       </c>
       <c r="L22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>4</v>
       </c>
       <c r="O22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>4</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>43709.842993344908</v>
+        <v>43705.585563356479</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3">
-        <v>20173222</v>
+        <v>20153423</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>3</v>
       </c>
       <c r="G23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
@@ -1647,37 +1647,37 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>43705.547266157402</v>
+        <v>43705.577257037032</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>20173228</v>
+        <v>20173240</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>2</v>
@@ -1686,42 +1686,42 @@
         <v>2</v>
       </c>
       <c r="N24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>43706.746118877316</v>
+        <v>43705.54696226852</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>20173232</v>
+        <v>20183238</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3">
         <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
         <v>5</v>
@@ -1730,10 +1730,10 @@
         <v>2</v>
       </c>
       <c r="L25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3">
         <v>4</v>
@@ -1742,121 +1742,121 @@
         <v>2</v>
       </c>
       <c r="P25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>43705.577257037032</v>
+        <v>43706.383725219908</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
-        <v>20173240</v>
+        <v>20165325</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>43706.586023043987</v>
+        <v>43705.551657233795</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3">
-        <v>20173244</v>
+        <v>20183240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3">
         <v>4</v>
       </c>
       <c r="J27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
         <v>2</v>
       </c>
       <c r="M27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" s="3">
         <v>2</v>
       </c>
       <c r="P27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>43705.623267488423</v>
+        <v>43706.586023043987</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
-        <v>20173246</v>
+        <v>20173244</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -1865,28 +1865,28 @@
         <v>4</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3">
         <v>2</v>
       </c>
       <c r="M28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O28" s="3">
         <v>2</v>
@@ -1897,40 +1897,40 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>43708.623458437505</v>
+        <v>43705.54661863426</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
-        <v>20173251</v>
+        <v>20172628</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3">
         <v>4</v>
@@ -1939,57 +1939,57 @@
         <v>4</v>
       </c>
       <c r="O29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>43705.649158414351</v>
+        <v>43705.623267488423</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3">
-        <v>20173261</v>
+        <v>20173246</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" s="3">
         <v>4</v>
@@ -1997,49 +1997,49 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>43709.535268263891</v>
+        <v>43705.547179976857</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3">
-        <v>20177094</v>
+        <v>20153427</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="3">
         <v>4</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3">
         <v>4</v>
@@ -2047,84 +2047,84 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>43705.548219837961</v>
+        <v>43705.560113009255</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3">
-        <v>20183205</v>
+        <v>20183246</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3">
         <v>3</v>
       </c>
       <c r="J32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>2</v>
       </c>
       <c r="P32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>43705.627075625001</v>
+        <v>43708.623458437505</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
-        <v>20183214</v>
+        <v>20173251</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -2133,63 +2133,63 @@
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>43705.54696226852</v>
+        <v>43705.651897777774</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3">
-        <v>20183238</v>
+        <v>20183249</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
         <v>2</v>
       </c>
       <c r="L34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" s="3">
         <v>3</v>
@@ -2197,166 +2197,166 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>43705.551657233795</v>
+        <v>43705.549833807869</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>20183240</v>
+        <v>20143432</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="3">
         <v>4</v>
       </c>
       <c r="J35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" s="3">
         <v>2</v>
       </c>
       <c r="P35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>43705.560113009255</v>
+        <v>43705.58000494213</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>20183246</v>
+        <v>20153433</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
         <v>2</v>
       </c>
       <c r="I36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="3">
         <v>2</v>
       </c>
       <c r="M36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O36" s="3">
         <v>2</v>
       </c>
       <c r="P36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>43705.651897777774</v>
+        <v>43708.544608310185</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
-        <v>20183249</v>
+        <v>20183253</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3">
         <v>2</v>
       </c>
       <c r="L37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M37" s="3">
         <v>4</v>
       </c>
       <c r="N37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O37" s="3">
         <v>3</v>
       </c>
       <c r="P37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>43708.544608310185</v>
+        <v>43705.549003900465</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3">
-        <v>20183253</v>
+        <v>20163257</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -2365,31 +2365,31 @@
         <v>4</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3">
         <v>3</v>
       </c>
       <c r="I38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3">
         <v>2</v>
       </c>
       <c r="L38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="3">
         <v>4</v>
@@ -2447,7 +2447,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P39">
-    <sortCondition ref="C1:C39"/>
+    <sortCondition ref="D1:D39"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
